--- a/Analysis/QuixBugs_GPT_APR/APR_one_shot_ChatGPT_4o_Java.xlsx
+++ b/Analysis/QuixBugs_GPT_APR/APR_one_shot_ChatGPT_4o_Java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Investigation Proper\Bug-Busters\Analysis\QuixBugs_GPT_APR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05928B4D-5043-4B73-819A-119AE643AACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892745CF-F5EB-4D97-BF7A-C69F1986380F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{79D7059E-FC63-4ABF-B77A-829F0E5CEC7D}"/>
   </bookViews>
@@ -8234,8 +8234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778369EA-C364-41F6-87AF-C6CD4D04D36C}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F42" zoomScale="54" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="54" workbookViewId="0">
+      <selection activeCell="K46" sqref="H1:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
